--- a/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchStudy.outcomeMeasure` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchStudy.outcomeMeasure` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.outcomeMeasure` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.name` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.name` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.outcomeMeasure.name` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -421,7 +421,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.type` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.type` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.outcomeMeasure.type` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -462,7 +462,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.description` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.description` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.outcomeMeasure.description` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -494,7 +494,8 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.reference` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.reference` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.outcomeMeasure.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.outcomeMeasure.reference` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -860,7 +861,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="146.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="206.8359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="165">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchStudy.outcomeMeasure` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchStudy.outcomeMeasure` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.outcomeMeasure` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.name` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.name` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.outcomeMeasure.name` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.name</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -421,7 +424,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.type` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.type` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.outcomeMeasure.type` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -431,6 +434,9 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -462,7 +468,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.description` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.description` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.outcomeMeasure.description` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -472,6 +478,9 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -495,7 +504,7 @@
   <si>
     <t>Element `ResearchStudy.outcomeMeasure.reference` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.outcomeMeasure.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.outcomeMeasure.reference` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.outcomeMeasure.reference` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -505,6 +514,9 @@
   </si>
   <si>
     <t>Extension.extension:reference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.reference</t>
   </si>
   <si>
     <t>Extension.extension:reference.value[x]</t>
@@ -1669,7 +1681,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1711,7 +1723,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1726,15 +1738,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1814,7 +1826,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1826,21 +1838,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1865,14 +1877,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1941,7 +1953,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2044,7 +2056,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2149,7 +2161,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2192,7 +2204,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2234,7 +2246,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2249,15 +2261,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2280,13 +2292,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2313,13 +2325,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2337,7 +2349,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2349,21 +2361,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2388,14 +2400,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2464,7 +2476,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2567,7 +2579,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2672,7 +2684,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2715,7 +2727,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2757,7 +2769,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -2772,15 +2784,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2803,13 +2815,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2860,7 +2872,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2872,21 +2884,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2911,14 +2923,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2987,7 +2999,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3090,7 +3102,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3195,7 +3207,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3238,7 +3250,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3280,7 +3292,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3295,15 +3307,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3326,13 +3338,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3383,7 +3395,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3395,18 +3407,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3488,7 +3500,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -3503,15 +3515,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3534,13 +3546,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3591,7 +3603,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3603,10 +3615,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -444,15 +444,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>defn.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-research-study-objective-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:description</t>
@@ -522,7 +513,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
 </t>
   </si>
   <si>
@@ -884,7 +875,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.46875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2325,13 +2316,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2369,13 +2360,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2400,14 +2391,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2476,7 +2467,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2579,7 +2570,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2684,7 +2675,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2727,7 +2718,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2789,7 +2780,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2815,13 +2806,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2892,13 +2883,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2923,14 +2914,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2999,7 +2990,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3102,7 +3093,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3207,7 +3198,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3250,7 +3241,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3312,7 +3303,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3338,13 +3329,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3546,13 +3537,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.outcomeMeasure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>Label for the outcome.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.outcomeMeasure.name` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.name` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.outcomeMeasure.name` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.name</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,8 +419,7 @@
     <t>The parameter or characteristic being assessed as one of the values by which the study is assessed.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.outcomeMeasure.type` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.type` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.outcomeMeasure.type` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -434,9 +429,6 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -446,6 +438,15 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>defn.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-objective-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:description</t>
   </si>
   <si>
@@ -458,8 +459,7 @@
     <t>Description of the outcome.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.outcomeMeasure.description` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Element `ResearchStudy.outcomeMeasure.description` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.outcomeMeasure.description` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -493,8 +490,7 @@
     <t>Structured outcome definition.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.outcomeMeasure.reference` is part of an existing definition because parent element `ResearchStudy.outcomeMeasure` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.outcomeMeasure.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.outcomeMeasure.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ResearchStudy.outcomeMeasure.reference` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
@@ -507,13 +503,10 @@
     <t>Extension.extension:reference.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.reference</t>
-  </si>
-  <si>
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
 </t>
   </si>
   <si>
@@ -875,7 +868,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.13671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1672,72 +1665,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1817,33 +1810,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1868,14 +1861,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1944,7 +1937,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2047,7 +2040,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2152,7 +2145,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2195,7 +2188,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2237,30 +2230,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2283,13 +2276,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2316,13 +2309,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2340,33 +2333,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2391,14 +2384,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2467,7 +2460,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2570,7 +2563,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2675,7 +2668,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2718,7 +2711,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2760,22 +2753,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -2783,7 +2776,7 @@
         <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2809,10 +2802,10 @@
         <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2863,22 +2856,22 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3241,7 +3234,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3283,30 +3276,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3329,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>150</v>
@@ -3386,30 +3379,30 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3491,30 +3484,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3537,13 +3530,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3594,22 +3587,22 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
